--- a/Node_coordinates.xlsx
+++ b/Node_coordinates.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TU DELFT - Master Thesis\UF-DecisionMaker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{63BF6D67-6454-458C-9B95-22327A0A75B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{299D503F-64E1-430A-8F70-496BB49FC25D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="192" windowWidth="12144" windowHeight="11664" activeTab="1" xr2:uid="{B04326D8-DF3D-4AC7-B978-F2537F81DF38}"/>
+    <workbookView xWindow="540" yWindow="192" windowWidth="12144" windowHeight="11664" activeTab="1" xr2:uid="{BD158D0C-38D1-4E8A-A28B-B85796402478}"/>
   </bookViews>
   <sheets>
-    <sheet name="Vacant" sheetId="1" r:id="rId1"/>
-    <sheet name="Waste" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -395,8 +395,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18A6D7DA-6119-482F-A5F0-80873B9815A6}">
-  <dimension ref="A1:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CB79F4A-D5FE-4FFD-98F1-E73484FF2BEE}">
+  <dimension ref="A1:C147"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -415,10 +415,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>64.792529999999999</v>
+        <v>2020.580643</v>
       </c>
       <c r="B2">
-        <v>69.821743999999995</v>
+        <v>387.39152899999999</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -426,10 +426,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>-53.645797999999999</v>
+        <v>935.00126899999998</v>
       </c>
       <c r="B3">
-        <v>20.542614</v>
+        <v>534.59445400000004</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -437,21 +437,21 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>22.821687000000001</v>
+        <v>766.99720100000002</v>
       </c>
       <c r="B4">
-        <v>53.644416</v>
+        <v>400.34173700000002</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>-71.365198000000007</v>
+        <v>254.491041</v>
       </c>
       <c r="B5">
-        <v>92.291458000000006</v>
+        <v>556.13217699999996</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -459,10 +459,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>-83.924008000000001</v>
+        <v>1770.13761</v>
       </c>
       <c r="B6">
-        <v>48.665334000000001</v>
+        <v>751.60827500000005</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -470,12 +470,1552 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>119.554709</v>
+        <v>1189.499865</v>
       </c>
       <c r="B7">
-        <v>-46.011167999999998</v>
+        <v>487.345394</v>
       </c>
       <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>336.90347300000002</v>
+      </c>
+      <c r="B8">
+        <v>621.88230499999997</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2237.0097249999999</v>
+      </c>
+      <c r="B9">
+        <v>595.715597</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>826.49752000000001</v>
+      </c>
+      <c r="B10">
+        <v>584.98792800000001</v>
+      </c>
+      <c r="C10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1886.407729</v>
+      </c>
+      <c r="B11">
+        <v>148.98564300000001</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1238.2745560000001</v>
+      </c>
+      <c r="B12">
+        <v>660.86451999999997</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1491.382251</v>
+      </c>
+      <c r="B13">
+        <v>454.89650799999998</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>2104.0990019999999</v>
+      </c>
+      <c r="B14">
+        <v>708.54326300000002</v>
+      </c>
+      <c r="C14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>725.48122599999999</v>
+      </c>
+      <c r="B15">
+        <v>475.78365200000002</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>707.801875</v>
+      </c>
+      <c r="B16">
+        <v>734.33</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>1172.021866</v>
+      </c>
+      <c r="B17">
+        <v>212.417878</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>1745.2779860000001</v>
+      </c>
+      <c r="B18">
+        <v>603.30579899999998</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>1456.1019590000001</v>
+      </c>
+      <c r="B19">
+        <v>681.594694</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>1360.2660719999999</v>
+      </c>
+      <c r="B20">
+        <v>674.28710000000001</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>1467.8792599999999</v>
+      </c>
+      <c r="B21">
+        <v>462.26593000000003</v>
+      </c>
+      <c r="C21">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>1967.6225019999999</v>
+      </c>
+      <c r="B22">
+        <v>719.12183100000004</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>1187.0691119999999</v>
+      </c>
+      <c r="B23">
+        <v>247.77347499999999</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>1102.0106089999999</v>
+      </c>
+      <c r="B24">
+        <v>565.39589799999999</v>
+      </c>
+      <c r="C24">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>759.51359200000002</v>
+      </c>
+      <c r="B25">
+        <v>338.63123400000001</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>1136.9011049999999</v>
+      </c>
+      <c r="B26">
+        <v>469.39727099999999</v>
+      </c>
+      <c r="C26">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>854.30161899999996</v>
+      </c>
+      <c r="B27">
+        <v>678.27194199999997</v>
+      </c>
+      <c r="C27">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>1765.6622540000001</v>
+      </c>
+      <c r="B28">
+        <v>759.76106500000003</v>
+      </c>
+      <c r="C28">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>976.86162400000001</v>
+      </c>
+      <c r="B29">
+        <v>685.92729999999995</v>
+      </c>
+      <c r="C29">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>575.48215900000002</v>
+      </c>
+      <c r="B30">
+        <v>536.19563000000005</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>1275.7331099999999</v>
+      </c>
+      <c r="B31">
+        <v>395.65248700000001</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>1325.1227389999999</v>
+      </c>
+      <c r="B32">
+        <v>368.65799900000002</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>2082.8100890000001</v>
+      </c>
+      <c r="B33">
+        <v>143.808595</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>1833.647815</v>
+      </c>
+      <c r="B34">
+        <v>454.916946</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>1747.573228</v>
+      </c>
+      <c r="B35">
+        <v>649.59231699999998</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>1014.438887</v>
+      </c>
+      <c r="B36">
+        <v>173.231638</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>2072.3290240000001</v>
+      </c>
+      <c r="B37">
+        <v>544.69013500000005</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>2231.5594930000002</v>
+      </c>
+      <c r="B38">
+        <v>182.612876</v>
+      </c>
+      <c r="C38">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>1932.5507560000001</v>
+      </c>
+      <c r="B39">
+        <v>615.43723799999998</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>1307.4761229999999</v>
+      </c>
+      <c r="B40">
+        <v>361.299511</v>
+      </c>
+      <c r="C40">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>1307.4761229999999</v>
+      </c>
+      <c r="B41">
+        <v>447.71459299999998</v>
+      </c>
+      <c r="C41">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>2252.7463419999999</v>
+      </c>
+      <c r="B42">
+        <v>255.457019</v>
+      </c>
+      <c r="C42">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>1860.04359</v>
+      </c>
+      <c r="B43">
+        <v>309.245812</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>1856.896197</v>
+      </c>
+      <c r="B44">
+        <v>600.86846300000002</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>2110.0904350000001</v>
+      </c>
+      <c r="B45">
+        <v>589.32193400000006</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>1021.549269</v>
+      </c>
+      <c r="B46">
+        <v>560.58027700000002</v>
+      </c>
+      <c r="C46">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>1886.9718330000001</v>
+      </c>
+      <c r="B47">
+        <v>696.66426000000001</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>1856.612474</v>
+      </c>
+      <c r="B48">
+        <v>718.58564799999999</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>2087.886501</v>
+      </c>
+      <c r="B49">
+        <v>604.05378299999995</v>
+      </c>
+      <c r="C49">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>1689.948378</v>
+      </c>
+      <c r="B50">
+        <v>626.65729899999997</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>1859.6115279999999</v>
+      </c>
+      <c r="B51">
+        <v>454.74354499999998</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>1348.321473</v>
+      </c>
+      <c r="B52">
+        <v>397.43215600000002</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>1056.358892</v>
+      </c>
+      <c r="B53">
+        <v>242.452808</v>
+      </c>
+      <c r="C53">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>1959.4250099999999</v>
+      </c>
+      <c r="B54">
+        <v>268.94209899999998</v>
+      </c>
+      <c r="C54">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>992.17681700000003</v>
+      </c>
+      <c r="B55">
+        <v>659.846045</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>942.19149700000003</v>
+      </c>
+      <c r="B56">
+        <v>230.737664</v>
+      </c>
+      <c r="C56">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>1355.1434870000001</v>
+      </c>
+      <c r="B57">
+        <v>445.71046000000001</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>2063.1365500000002</v>
+      </c>
+      <c r="B58">
+        <v>604.05378299999995</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>1196.644963</v>
+      </c>
+      <c r="B59">
+        <v>359.892335</v>
+      </c>
+      <c r="C59">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>1146.3060809999999</v>
+      </c>
+      <c r="B60">
+        <v>340.59576299999998</v>
+      </c>
+      <c r="C60">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>1196.644963</v>
+      </c>
+      <c r="B61">
+        <v>321.29919100000001</v>
+      </c>
+      <c r="C61">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>1196.644963</v>
+      </c>
+      <c r="B62">
+        <v>282.70604700000001</v>
+      </c>
+      <c r="C62">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>1096.8061789999999</v>
+      </c>
+      <c r="B63">
+        <v>359.892335</v>
+      </c>
+      <c r="C63">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>1146.3060809999999</v>
+      </c>
+      <c r="B64">
+        <v>302.00261899999998</v>
+      </c>
+      <c r="C64">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>1096.8061789999999</v>
+      </c>
+      <c r="B65">
+        <v>321.29919100000001</v>
+      </c>
+      <c r="C65">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>1096.8061789999999</v>
+      </c>
+      <c r="B66">
+        <v>282.70604700000001</v>
+      </c>
+      <c r="C66">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>1365.6428989999999</v>
+      </c>
+      <c r="B67">
+        <v>548.59060599999998</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>1916.4748689999999</v>
+      </c>
+      <c r="B68">
+        <v>254.75485699999999</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>953.20319500000005</v>
+      </c>
+      <c r="B69">
+        <v>436.50794300000001</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>257.11454099999997</v>
+      </c>
+      <c r="B70">
+        <v>548.51660700000002</v>
+      </c>
+      <c r="C70">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>1927.641057</v>
+      </c>
+      <c r="B71">
+        <v>698.01969799999995</v>
+      </c>
+      <c r="C71">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>1886.441857</v>
+      </c>
+      <c r="B72">
+        <v>745.46098400000005</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>1170.8886600000001</v>
+      </c>
+      <c r="B73">
+        <v>730.07885399999998</v>
+      </c>
+      <c r="C73">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>1944.840175</v>
+      </c>
+      <c r="B74">
+        <v>199.24526599999999</v>
+      </c>
+      <c r="C74">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>1144.065167</v>
+      </c>
+      <c r="B75">
+        <v>767.89552100000003</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>2001.0280600000001</v>
+      </c>
+      <c r="B76">
+        <v>641.80794500000002</v>
+      </c>
+      <c r="C76">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>886.80713400000002</v>
+      </c>
+      <c r="B77">
+        <v>318.03994999999998</v>
+      </c>
+      <c r="C77">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>1965.8147100000001</v>
+      </c>
+      <c r="B78">
+        <v>682.49854200000004</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>1892.0750780000001</v>
+      </c>
+      <c r="B79">
+        <v>556.45712200000003</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>709.02059999999994</v>
+      </c>
+      <c r="B80">
+        <v>201.34272000000001</v>
+      </c>
+      <c r="C80">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>885.32288900000003</v>
+      </c>
+      <c r="B81">
+        <v>592.55805999999995</v>
+      </c>
+      <c r="C81">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>1781.529949</v>
+      </c>
+      <c r="B82">
+        <v>145.80869799999999</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>2000.503935</v>
+      </c>
+      <c r="B83">
+        <v>702.96914100000004</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>2283.175338</v>
+      </c>
+      <c r="B84">
+        <v>205.21585899999999</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>930.62203299999999</v>
+      </c>
+      <c r="B85">
+        <v>413.86539299999998</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>1776.14714</v>
+      </c>
+      <c r="B86">
+        <v>490.75261499999999</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>2059.2093880000002</v>
+      </c>
+      <c r="B87">
+        <v>641.80794500000002</v>
+      </c>
+      <c r="C87">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>1964.5562379999999</v>
+      </c>
+      <c r="B88">
+        <v>648.93928700000004</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>1120.540968</v>
+      </c>
+      <c r="B89">
+        <v>243.71127999999999</v>
+      </c>
+      <c r="C89">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>985.884456</v>
+      </c>
+      <c r="B90">
+        <v>239.93586300000001</v>
+      </c>
+      <c r="C90">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>2204.207461</v>
+      </c>
+      <c r="B91">
+        <v>138.013049</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>2061.0390969999999</v>
+      </c>
+      <c r="B92">
+        <v>567.55809299999999</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>1162.0705459999999</v>
+      </c>
+      <c r="B93">
+        <v>243.29178899999999</v>
+      </c>
+      <c r="C93">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>1202.341653</v>
+      </c>
+      <c r="B94">
+        <v>243.29178899999999</v>
+      </c>
+      <c r="C94">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>1089.079166</v>
+      </c>
+      <c r="B95">
+        <v>302.02048600000001</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>1180.528137</v>
+      </c>
+      <c r="B96">
+        <v>402.27876099999997</v>
+      </c>
+      <c r="C96">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>1200.6636900000001</v>
+      </c>
+      <c r="B97">
+        <v>302.439976</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>1265.4298329999999</v>
+      </c>
+      <c r="B98">
+        <v>771.16621199999997</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>1273.3337160000001</v>
+      </c>
+      <c r="B99">
+        <v>711.48983699999997</v>
+      </c>
+      <c r="C99">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>986.59020499999997</v>
+      </c>
+      <c r="B100">
+        <v>767.90915800000005</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>1199.824709</v>
+      </c>
+      <c r="B101">
+        <v>341.87210099999999</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>291.76000599999998</v>
+      </c>
+      <c r="B102">
+        <v>614.43794000000003</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>1090.7571290000001</v>
+      </c>
+      <c r="B103">
+        <v>341.87210099999999</v>
+      </c>
+      <c r="C103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>1886.95046</v>
+      </c>
+      <c r="B104">
+        <v>725.28659300000004</v>
+      </c>
+      <c r="C104">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>1905.40805</v>
+      </c>
+      <c r="B105">
+        <v>199.66475700000001</v>
+      </c>
+      <c r="C105">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>1144.8714279999999</v>
+      </c>
+      <c r="B106">
+        <v>321.73654800000003</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>1272.371848</v>
+      </c>
+      <c r="B107">
+        <v>232.305328</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>749.26344900000004</v>
+      </c>
+      <c r="B108">
+        <v>220.91717800000001</v>
+      </c>
+      <c r="C108">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>2265.186467</v>
+      </c>
+      <c r="B109">
+        <v>137.04315700000001</v>
+      </c>
+      <c r="C109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>2120.1872840000001</v>
+      </c>
+      <c r="B110">
+        <v>479.88453900000002</v>
+      </c>
+      <c r="C110">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>1936.138471</v>
+      </c>
+      <c r="B111">
+        <v>576.09814900000003</v>
+      </c>
+      <c r="C111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>1379.7862150000001</v>
+      </c>
+      <c r="B112">
+        <v>389.69403999999997</v>
+      </c>
+      <c r="C112">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>1119.2406779999999</v>
+      </c>
+      <c r="B113">
+        <v>202.74665999999999</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>727.31052599999998</v>
+      </c>
+      <c r="B114">
+        <v>191.87984700000001</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>2118.0898309999998</v>
+      </c>
+      <c r="B115">
+        <v>203.44017299999999</v>
+      </c>
+      <c r="C115">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>1198.1287709999999</v>
+      </c>
+      <c r="B116">
+        <v>203.891088</v>
+      </c>
+      <c r="C116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>1951.5520260000001</v>
+      </c>
+      <c r="B117">
+        <v>218.54183800000001</v>
+      </c>
+      <c r="C117">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>1310.048145</v>
+      </c>
+      <c r="B118">
+        <v>768.80420000000004</v>
+      </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>1969.5901260000001</v>
+      </c>
+      <c r="B119">
+        <v>481.562501</v>
+      </c>
+      <c r="C119">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>1969.5901260000001</v>
+      </c>
+      <c r="B120">
+        <v>443.80833899999999</v>
+      </c>
+      <c r="C120">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>946.87182199999995</v>
+      </c>
+      <c r="B121">
+        <v>752.13399700000002</v>
+      </c>
+      <c r="C121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>1219.9602620000001</v>
+      </c>
+      <c r="B122">
+        <v>670.33331199999998</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>618.83010200000001</v>
+      </c>
+      <c r="B123">
+        <v>518.89700500000004</v>
+      </c>
+      <c r="C123">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>204.79262199999999</v>
+      </c>
+      <c r="B124">
+        <v>650.19775900000002</v>
+      </c>
+      <c r="C124">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>1154.60924</v>
+      </c>
+      <c r="B125">
+        <v>203.11309800000001</v>
+      </c>
+      <c r="C125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>916.24900200000002</v>
+      </c>
+      <c r="B126">
+        <v>632.57915000000003</v>
+      </c>
+      <c r="C126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>1879.8191179999999</v>
+      </c>
+      <c r="B127">
+        <v>481.562501</v>
+      </c>
+      <c r="C127">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>1937.3788340000001</v>
+      </c>
+      <c r="B128">
+        <v>653.26798299999996</v>
+      </c>
+      <c r="C128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>1891.1509619999999</v>
+      </c>
+      <c r="B129">
+        <v>585.07794200000001</v>
+      </c>
+      <c r="C129">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>1879.8191179999999</v>
+      </c>
+      <c r="B130">
+        <v>442.54986700000001</v>
+      </c>
+      <c r="C130">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>381.04961700000001</v>
+      </c>
+      <c r="B131">
+        <v>522.281747</v>
+      </c>
+      <c r="C131">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>747.21907699999997</v>
+      </c>
+      <c r="B132">
+        <v>278.59087099999999</v>
+      </c>
+      <c r="C132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>1261.0703490000001</v>
+      </c>
+      <c r="B133">
+        <v>712.28238099999999</v>
+      </c>
+      <c r="C133">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>2145.8177460000002</v>
+      </c>
+      <c r="B134">
+        <v>580.14281400000004</v>
+      </c>
+      <c r="C134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>1884.449721</v>
+      </c>
+      <c r="B135">
+        <v>616.88201900000001</v>
+      </c>
+      <c r="C135">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>2005.2554239999999</v>
+      </c>
+      <c r="B136">
+        <v>549.43698900000004</v>
+      </c>
+      <c r="C136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>2134.4499679999999</v>
+      </c>
+      <c r="B137">
+        <v>197.56730400000001</v>
+      </c>
+      <c r="C137">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>1042.515699</v>
+      </c>
+      <c r="B138">
+        <v>455.973569</v>
+      </c>
+      <c r="C138">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>995.53274199999998</v>
+      </c>
+      <c r="B139">
+        <v>719.833214</v>
+      </c>
+      <c r="C139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>599.15146200000004</v>
+      </c>
+      <c r="B140">
+        <v>516.67784500000005</v>
+      </c>
+      <c r="C140">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>995.53274199999998</v>
+      </c>
+      <c r="B141">
+        <v>743.74418300000002</v>
+      </c>
+      <c r="C141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>2282.5431629999998</v>
+      </c>
+      <c r="B142">
+        <v>287.23590100000001</v>
+      </c>
+      <c r="C142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>2071.9458549999999</v>
+      </c>
+      <c r="B143">
+        <v>622.93086400000004</v>
+      </c>
+      <c r="C143">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>1881.2873360000001</v>
+      </c>
+      <c r="B144">
+        <v>372.66817099999997</v>
+      </c>
+      <c r="C144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>964.49043099999994</v>
+      </c>
+      <c r="B145">
+        <v>752.97297800000001</v>
+      </c>
+      <c r="C145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>1886.95046</v>
+      </c>
+      <c r="B146">
+        <v>605.73174600000004</v>
+      </c>
+      <c r="C146">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>753.64498500000002</v>
+      </c>
+      <c r="B147">
+        <v>766.35998900000004</v>
+      </c>
+      <c r="C147">
         <v>0</v>
       </c>
     </row>
@@ -485,12 +2025,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFFF1096-F785-41BA-8878-15E9D4078C94}">
-  <dimension ref="A1:C10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED4460B3-E0C2-4A2B-8A95-4C841D9AADC9}">
+  <dimension ref="A1:C88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -507,10 +2045,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>-92.488837000000004</v>
+        <v>940.15997100000004</v>
       </c>
       <c r="B2">
-        <v>73.403101000000007</v>
+        <v>709.34577899999999</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -518,10 +2056,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>-70.863457999999994</v>
+        <v>274.847735</v>
       </c>
       <c r="B3">
-        <v>35.713155</v>
+        <v>547.422372</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -529,10 +2067,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>1.5502400000000001</v>
+        <v>304.212084</v>
       </c>
       <c r="B4">
-        <v>2.3438349999999999</v>
+        <v>575.94773899999996</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -540,10 +2078,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>34.714638000000001</v>
+        <v>284.07653099999999</v>
       </c>
       <c r="B5">
-        <v>11.853548</v>
+        <v>481.98182400000002</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -551,10 +2089,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>18.602506000000002</v>
+        <v>190.94959700000001</v>
       </c>
       <c r="B6">
-        <v>-62.233936999999997</v>
+        <v>634.67643599999997</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -562,10 +2100,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>-64.048035999999996</v>
+        <v>253.03421900000001</v>
       </c>
       <c r="B7">
-        <v>3.817898</v>
+        <v>609.50699399999996</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -573,10 +2111,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>-20.816151999999999</v>
+        <v>207.72922500000001</v>
       </c>
       <c r="B8">
-        <v>27.032717999999999</v>
+        <v>598.600236</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -584,10 +2122,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>-1.6976070000000001</v>
+        <v>207.72922500000001</v>
       </c>
       <c r="B9">
-        <v>-39.597200000000001</v>
+        <v>560.00709300000005</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -595,12 +2133,870 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>-13.249871000000001</v>
+        <v>289.94940000000003</v>
       </c>
       <c r="B10">
-        <v>-20.411884000000001</v>
+        <v>507.99024700000001</v>
       </c>
       <c r="C10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>686.78759400000001</v>
+      </c>
+      <c r="B11">
+        <v>718.57457399999998</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>692.24097300000005</v>
+      </c>
+      <c r="B12">
+        <v>685.43480899999997</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>708.18161899999996</v>
+      </c>
+      <c r="B13">
+        <v>620.83324300000004</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>684.27065000000005</v>
+      </c>
+      <c r="B14">
+        <v>614.54088300000001</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>657.00375499999996</v>
+      </c>
+      <c r="B15">
+        <v>631.74000100000001</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>808.02040299999999</v>
+      </c>
+      <c r="B16">
+        <v>359.910033</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>841.57965899999999</v>
+      </c>
+      <c r="B17">
+        <v>378.36762399999998</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>621.34704599999998</v>
+      </c>
+      <c r="B18">
+        <v>528.96478200000001</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>751.38915999999995</v>
+      </c>
+      <c r="B19">
+        <v>533.15968899999996</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>757.68151999999998</v>
+      </c>
+      <c r="B20">
+        <v>565.46047199999998</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>654.48681099999999</v>
+      </c>
+      <c r="B21">
+        <v>593.98583900000006</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>663.71560599999998</v>
+      </c>
+      <c r="B22">
+        <v>565.46047199999998</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>682.17319599999996</v>
+      </c>
+      <c r="B23">
+        <v>541.13001199999997</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>694.75791700000002</v>
+      </c>
+      <c r="B24">
+        <v>567.13843399999996</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>697.27486099999999</v>
+      </c>
+      <c r="B25">
+        <v>595.66380100000003</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>788.72383200000002</v>
+      </c>
+      <c r="B26">
+        <v>565.46047199999998</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>788.72383200000002</v>
+      </c>
+      <c r="B27">
+        <v>602.37565199999995</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>857.52030500000001</v>
+      </c>
+      <c r="B28">
+        <v>565.46047199999998</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>886.04567199999997</v>
+      </c>
+      <c r="B29">
+        <v>565.46047199999998</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>538.28788899999995</v>
+      </c>
+      <c r="B30">
+        <v>341.03295200000002</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>538.70737999999994</v>
+      </c>
+      <c r="B31">
+        <v>316.28300100000001</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>538.70737999999994</v>
+      </c>
+      <c r="B32">
+        <v>284.40170899999998</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>649.03343199999995</v>
+      </c>
+      <c r="B33">
+        <v>294.04999500000002</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>613.37672299999997</v>
+      </c>
+      <c r="B34">
+        <v>293.63050399999997</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>604.56741799999998</v>
+      </c>
+      <c r="B35">
+        <v>357.81258000000003</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>681.75370499999997</v>
+      </c>
+      <c r="B36">
+        <v>357.81258000000003</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>682.17319599999996</v>
+      </c>
+      <c r="B37">
+        <v>417.79974900000002</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>663.71560599999998</v>
+      </c>
+      <c r="B38">
+        <v>364.94392199999999</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>758.52050199999996</v>
+      </c>
+      <c r="B39">
+        <v>435.41835800000001</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>682.17319599999996</v>
+      </c>
+      <c r="B40">
+        <v>396.82521400000002</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>682.17319599999996</v>
+      </c>
+      <c r="B41">
+        <v>378.36762399999998</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>728.73666300000002</v>
+      </c>
+      <c r="B42">
+        <v>453.456457</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>771.94420400000001</v>
+      </c>
+      <c r="B43">
+        <v>401.85910200000001</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>246.74185900000001</v>
+      </c>
+      <c r="B44">
+        <v>572.17232300000001</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>771.94420400000001</v>
+      </c>
+      <c r="B45">
+        <v>375.85067900000001</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>771.94420400000001</v>
+      </c>
+      <c r="B46">
+        <v>354.87614500000001</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>771.94420400000001</v>
+      </c>
+      <c r="B47">
+        <v>337.25753600000002</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>673.78338199999996</v>
+      </c>
+      <c r="B48">
+        <v>329.706703</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>633.51227600000004</v>
+      </c>
+      <c r="B49">
+        <v>329.706703</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>1008.117463</v>
+      </c>
+      <c r="B50">
+        <v>461.00729000000001</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>1076.494445</v>
+      </c>
+      <c r="B51">
+        <v>436.257339</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>1110.053701</v>
+      </c>
+      <c r="B52">
+        <v>436.257339</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>1141.9349930000001</v>
+      </c>
+      <c r="B53">
+        <v>436.257339</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>1179.689155</v>
+      </c>
+      <c r="B54">
+        <v>436.257339</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>1173.816286</v>
+      </c>
+      <c r="B55">
+        <v>460.58779900000002</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>1008.117463</v>
+      </c>
+      <c r="B56">
+        <v>570.07486900000004</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>1068.524122</v>
+      </c>
+      <c r="B57">
+        <v>570.07486900000004</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>964.90992200000005</v>
+      </c>
+      <c r="B58">
+        <v>569.65537900000004</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>1037.901302</v>
+      </c>
+      <c r="B59">
+        <v>571.33334100000002</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>1105.858794</v>
+      </c>
+      <c r="B60">
+        <v>575.52824799999996</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>1089.079166</v>
+      </c>
+      <c r="B61">
+        <v>458.90983599999998</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>1176.33323</v>
+      </c>
+      <c r="B62">
+        <v>566.29945299999997</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>1141.096012</v>
+      </c>
+      <c r="B63">
+        <v>604.05361500000004</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>1131.028235</v>
+      </c>
+      <c r="B64">
+        <v>635.09592599999996</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>1085.7232409999999</v>
+      </c>
+      <c r="B65">
+        <v>633.41796399999998</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>1072.2995390000001</v>
+      </c>
+      <c r="B66">
+        <v>609.92648499999996</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>1103.34185</v>
+      </c>
+      <c r="B67">
+        <v>611.60444800000005</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>1133.545179</v>
+      </c>
+      <c r="B68">
+        <v>568.81639700000005</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>1106.6977750000001</v>
+      </c>
+      <c r="B69">
+        <v>641.80777699999999</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>1225.4136410000001</v>
+      </c>
+      <c r="B70">
+        <v>700.95596499999999</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>1395.7268610000001</v>
+      </c>
+      <c r="B71">
+        <v>455.97340100000002</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>1355.455755</v>
+      </c>
+      <c r="B72">
+        <v>447.58358800000002</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>1731.738904</v>
+      </c>
+      <c r="B73">
+        <v>633.41796399999998</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>1171.718832</v>
+      </c>
+      <c r="B74">
+        <v>731.15929500000004</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>1172.1383229999999</v>
+      </c>
+      <c r="B75">
+        <v>751.714338</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>2065.2340039999999</v>
+      </c>
+      <c r="B76">
+        <v>423.253128</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>1918.4122620000001</v>
+      </c>
+      <c r="B77">
+        <v>341.03295200000002</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>1890.306386</v>
+      </c>
+      <c r="B78">
+        <v>340.61346099999997</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>1956.5859150000001</v>
+      </c>
+      <c r="B79">
+        <v>340.61346099999997</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>1918.4122620000001</v>
+      </c>
+      <c r="B80">
+        <v>286.49916200000001</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>1893.662311</v>
+      </c>
+      <c r="B81">
+        <v>299.50337400000001</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>1922.187678</v>
+      </c>
+      <c r="B82">
+        <v>234.062826</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>1922.187678</v>
+      </c>
+      <c r="B83">
+        <v>205.53745900000001</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>2254.0048139999999</v>
+      </c>
+      <c r="B84">
+        <v>255.456851</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>1277.8499770000001</v>
+      </c>
+      <c r="B85">
+        <v>395.14725099999998</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>1008.117463</v>
+      </c>
+      <c r="B86">
+        <v>432.48192299999999</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>938.06251699999996</v>
+      </c>
+      <c r="B87">
+        <v>361.58799599999998</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>938.06251699999996</v>
+      </c>
+      <c r="B88">
+        <v>294.46948500000002</v>
+      </c>
+      <c r="C88">
         <v>0</v>
       </c>
     </row>
